--- a/Enwurf/Methoden_offene_Fragen.xlsx
+++ b/Enwurf/Methoden_offene_Fragen.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93af167be3ae61a4/Dokumente/GitHub/PSE/Enwurf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="2CD6FC9010D0520DBCB6291C2756DF2CEF9D132E" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{828699D9-0F7B-492A-9F12-F0685F764BEC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{F813AB76-C9FD-4EEB-B981-553D1577EF4F}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>saveText()</t>
   </si>
@@ -60,6 +61,15 @@
   </si>
   <si>
     <t>PopUp!!!</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Beobachter</t>
+  </si>
+  <si>
+    <t>wie kommen wir an Texte etc.?</t>
   </si>
 </sst>
 </file>
@@ -435,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A1C88A-55DC-4FD8-9146-C47A733E069A}">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,6 +508,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
